--- a/big-data/big-data-capstone/project/data/beer_n_Kabrew Kumiho Peach Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Kabrew Kumiho Peach Ale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,79 +568,6 @@
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>orphx(1)
-3.1August 10, 2021
-Very light and refreshing with a scent of peach. Not the very best but nice to have once in a while.
-CAN
-Aroma
--
-Appearance
--
-Flavor
--
-Mouthfeel
--
-Overall
--</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Flavored - Fruit</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>9 IBU</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>After.dawn(64)
 🇰🇷Suwon, South Korea
@@ -660,137 +587,62 @@
 13</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Flavored - Fruit</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>9 IBU</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>After.dawn(64)
-🇰🇷Suwon, South Korea
-2.7July 21, 2021
-우선 구미호 피치에일을 양조한 카브루(KABREW)의 심볼은 맥주 이름과 같은 구미호인데 9개의 꼬리만큼이나 다양하고 창의적인 맛을 구현하겠다는 의지를 표현했다고 하더라구요. 앞으로 또 어떤 도전적인 맥주를 만…
-Show more
-CAN
-Aroma
-6
-Appearance
-1
-Flavor
-6
-Mouthfeel
-1
-Overall
-13</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Flavored - Fruit</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>9 IBU</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>GoufCustom(3,017)
 🇭🇰Hong Kong
@@ -811,138 +663,62 @@
 9</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Flavored - Fruit</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>9 IBU</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GoufCustom(3,017)
-🇭🇰Hong Kong
-2.7April 11, 2021
-500ml can bought at K-Mart Korean Food in Sham Shui Po. 
-Looks: Translucent dull golden honey colour with trace of mist…
-Show more
-CAN
-Aroma
-6
-Appearance
-3
-Flavor
-6
-Mouthfeel
-3
-Overall
-9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Flavored - Fruit</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>9 IBU</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>atpsynthase(208)
 🇸🇬Singapore
@@ -962,139 +738,64 @@
 12</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Flavored - Fruit</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>9 IBU</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>atpsynthase(208)
-🇸🇬Singapore
-3.1March 31, 2021
-500 ml can from a local convenience store (!). The importer said that they no longer imported it any more. Pours a cloudy yellowish amber with a two finger white head; nice peachy…
-Show more
-CAN
-Aroma
-7
-Appearance
-3
-Flavor
-6
-Mouthfeel
-3
-Overall
-12</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Flavored - Fruit</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>9 IBU</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Oakes(27,868)
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oakes(27,870)
 🇨🇦Richmond, Canada
 2.5February 29, 2020
 Cloudy, fullish blonde colour. Thin head, lots of artificial peach on both nose and palate. Candyish and perfumey...I’ve had fake schoolkid juice that tasted more real than this.
@@ -1110,125 +811,52 @@
 10</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kabrew Kumiho Peach Ale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Flavored - Fruit</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>4.5%</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>9 IBU</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>135 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Oakes(27,868)
-🇨🇦Richmond, Canada
-2.5February 29, 2020
-Cloudy, fullish blonde colour. Thin head, lots of artificial peach on both nose and palate. Candyish and perfumey...I’ve had fake schoolkid juice that tasted more real than this.
-Aroma
-5
-Appearance
-3
-Flavor
-5
-Mouthfeel
-2
-Overall
-10</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho Peach Ale</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Flavored - Fruit</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>9 IBU</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>North American style fruit beer based on wheat which has full scent of peach and no bitter taste.</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>135 cal per 355ml</t>
         </is>
